--- a/medicine/Hématologie/Volume_globulaire_moyen/Volume_globulaire_moyen.xlsx
+++ b/medicine/Hématologie/Volume_globulaire_moyen/Volume_globulaire_moyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le volume globulaire moyen, ou VGM, est un paramètre sanguin rendant compte de la taille des globules rouges, exprimée en µm3 (ou femtolitres, 1µm³ = 1 fL) . Il se calcule après la réalisation d'un hémogramme à partir de l'hématocrite et de la numération globulaire (nombre d'érythrocytes), selon la formule VGM = Ht x 10 / NG (avec Ht en % et NG en millions/mm3).  
 Il définit le caractère normocytaire, microcytaire ou macrocytaire d'une anémie. La valeur du VGM aide ainsi à poser le diagnostic étiologique de l'anémie.
@@ -512,7 +524,9 @@
           <t>Valeurs usuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">VGM (L) = Hématocrite (nombre compris entre 0 et 1) / Nombre de Globules Rouges par litre
 Le VGM, généralement exprimé en femtolitres (fL=10–15L), est donc le volume moyen des globules rouges.
@@ -545,7 +559,9 @@
           <t>Valeurs pathologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">VGM &gt; 100 fL : caractère macrocytaire : érythrocytes de grande taille
 VGM &lt; 80 fL : caractère microcytaire : érythrocytes de petite taille
@@ -579,9 +595,11 @@
           <t>Chez les oiseaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'oiseau, divers paramètres hématologiques (dont hématocrite) étaient déjà fréquemment utilisés dans l'évaluation de la condition des individus et populations. Il a été montré au début des années 2000 que ces paramètres sanguins sont de bons indicateurs des performances de reproduction de grands labbes Catharacta skua sauvages, dans la nature. Les MCV des mâles ont été chez ces oiseaux significativement et positivement corrélés avec la date d'éclosion et les MCV des deux sexes étaient en corrélation négative avec le nombre de poussins viables (Alors qu'aucune corrélation n'existait entre ces paramètres d'évaluation de l'efficacité de la reproduction et l'hématocrite). Chez les adultes mâles et femelles, comme chez les poussins, le VGM influe probablement sur la performance reproductive via les performances en recherche de nourriture et soins aux œufs ou poussins, paramètre qui peut être plus important chez les femelles (investissement nutritionnel). Cette étude était la première portant sur une population de vertébrés sauvage et en liberté. L'utilisation du volume globulaire moyen comme indicateur de santé de l'oiseau permet de surmonter certains des inconvénients liés au suivi des hématocrites[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'oiseau, divers paramètres hématologiques (dont hématocrite) étaient déjà fréquemment utilisés dans l'évaluation de la condition des individus et populations. Il a été montré au début des années 2000 que ces paramètres sanguins sont de bons indicateurs des performances de reproduction de grands labbes Catharacta skua sauvages, dans la nature. Les MCV des mâles ont été chez ces oiseaux significativement et positivement corrélés avec la date d'éclosion et les MCV des deux sexes étaient en corrélation négative avec le nombre de poussins viables (Alors qu'aucune corrélation n'existait entre ces paramètres d'évaluation de l'efficacité de la reproduction et l'hématocrite). Chez les adultes mâles et femelles, comme chez les poussins, le VGM influe probablement sur la performance reproductive via les performances en recherche de nourriture et soins aux œufs ou poussins, paramètre qui peut être plus important chez les femelles (investissement nutritionnel). Cette étude était la première portant sur une population de vertébrés sauvage et en liberté. L'utilisation du volume globulaire moyen comme indicateur de santé de l'oiseau permet de surmonter certains des inconvénients liés au suivi des hématocrites.
 </t>
         </is>
       </c>
